--- a/УП.01 2023 41П Мухин Н.А/2_Основные/Сессия 2/Районы СПб.xlsx
+++ b/УП.01 2023 41П Мухин Н.А/2_Основные/Сессия 2/Районы СПб.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main\RDP\41П\лебедевааф\Desktop\УП.01 2023 41П Мухин Н.А\2_Основные\Сессия 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5211D76B-52AF-43FB-B0BA-BC9686D61F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4A42C7-6A32-4FA6-ABAB-DA3C445A8C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,23 @@
     <sheet name="Districts" sheetId="1" r:id="rId1"/>
     <sheet name="BuildingType" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>Название района</t>
   </si>
@@ -57,13 +68,22 @@
   </si>
   <si>
     <t>название</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>number_metro_stations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -82,6 +102,26 @@
       <sz val="11"/>
       <color rgb="FF202124"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -110,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -120,6 +160,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -338,10 +381,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -354,7 +397,7 @@
     <col min="11" max="11" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -371,7 +414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -388,7 +431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -405,7 +448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -457,16 +500,16 @@
       <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -528,6 +571,17 @@
       </c>
       <c r="F15" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -540,7 +594,7 @@
   <dimension ref="B3:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B4" sqref="B4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -549,7 +603,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
